--- a/数据/Toyhouse_wiki_personal_contributions.xlsx
+++ b/数据/Toyhouse_wiki_personal_contributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="14440" tabRatio="764" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="24720" windowHeight="13400" tabRatio="764" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="20" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId22"/>
+    <pivotCache cacheId="1" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -619,7 +619,7 @@
     <author>w</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="3680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="3684">
   <si>
     <t>2015年10月27日 (二) 22:44 （差异 | 历史） . . （+231）‎ . . 《超越学科的认知基础》2015秋赵益泉学习报告 ‎ （→‎第六周） （当前） [回退超过10次的编辑]</t>
   </si>
@@ -12298,13 +12298,49 @@
     <t>talk</t>
   </si>
   <si>
-    <t>词条</t>
-  </si>
-  <si>
     <t>词条／页面</t>
   </si>
   <si>
     <t>二</t>
+  </si>
+  <si>
+    <r>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习报告</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词条</t>
+    </r>
+  </si>
+  <si>
+    <t>新／旧</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>正／负</t>
   </si>
 </sst>
 </file>
@@ -12400,8 +12436,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12499,7 +12547,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -12539,6 +12587,12 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -12578,6 +12632,12 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18446,7 +18506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:H23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -18994,7 +19054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
+    <sheetView topLeftCell="A213" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -20208,7 +20268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H357"/>
   <sheetViews>
-    <sheetView topLeftCell="A351" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -22042,7 +22102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B167"/>
     </sheetView>
   </sheetViews>
@@ -23256,7 +23316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -23845,8 +23905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24179,8 +24239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29840,7 +29900,7 @@
   <dimension ref="A3:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31047,8 +31107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31651,6 +31711,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -31666,7 +31727,7 @@
   <dimension ref="A1:I495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31708,7 +31769,7 @@
         <v>3160</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -34620,26 +34681,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57" customHeight="1">
+    <row r="1" spans="1:10" ht="57" customHeight="1">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>3163</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3162</v>
       </c>
@@ -34656,25 +34717,32 @@
         <v>3158</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3159</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3161</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>3160</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>584</v>
       </c>
@@ -34682,16 +34750,20 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E4" s="3">
         <v>0.90625</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3"/>
+      <c r="G4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>585</v>
       </c>
@@ -34699,16 +34771,17 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E5" s="3">
         <v>0.90555555555555556</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3"/>
+      <c r="G5">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>586</v>
       </c>
@@ -34716,16 +34789,17 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E6" s="3">
         <v>0.90486111111111101</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3"/>
+      <c r="G6">
         <v>1169</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>587</v>
       </c>
@@ -34733,19 +34807,21 @@
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E7" s="3">
         <v>0.90277777777777779</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3"/>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>3677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>3680</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>588</v>
       </c>
@@ -34753,16 +34829,17 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E8" s="3">
         <v>0.89861111111111114</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3"/>
+      <c r="G8" s="1">
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>589</v>
       </c>
@@ -34770,16 +34847,17 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E9" s="3">
         <v>0.89861111111111114</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3"/>
+      <c r="G9">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>590</v>
       </c>
@@ -34787,16 +34865,20 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E10" s="3">
         <v>0.8965277777777777</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3"/>
+      <c r="G10">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>591</v>
       </c>
@@ -34804,16 +34886,17 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E11" s="3">
         <v>0.89166666666666661</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3"/>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>592</v>
       </c>
@@ -34821,16 +34904,17 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E12" s="3">
         <v>0.89166666666666661</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3"/>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>593</v>
       </c>
@@ -34838,16 +34922,17 @@
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E13" s="3">
         <v>0.89097222222222217</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3"/>
+      <c r="G13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>594</v>
       </c>
@@ -34855,16 +34940,17 @@
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E14" s="3">
         <v>0.89097222222222217</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3"/>
+      <c r="G14">
         <v>-99</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>595</v>
       </c>
@@ -34872,16 +34958,17 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E15" s="3">
         <v>0.89027777777777783</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3"/>
+      <c r="G15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>596</v>
       </c>
@@ -34889,16 +34976,17 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E16" s="3">
         <v>0.89027777777777783</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3"/>
+      <c r="G16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>597</v>
       </c>
@@ -34906,16 +34994,17 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E17" s="3">
         <v>0.88958333333333339</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3"/>
+      <c r="G17">
         <v>-470</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>598</v>
       </c>
@@ -34923,19 +35012,20 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E18" s="3">
         <v>0.8881944444444444</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3"/>
+      <c r="G18">
         <v>31</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>599</v>
       </c>
@@ -34943,16 +35033,17 @@
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E19" s="3">
         <v>0.8847222222222223</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3"/>
+      <c r="G19">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>600</v>
       </c>
@@ -34960,19 +35051,20 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E20" s="3">
         <v>0.88402777777777775</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3"/>
+      <c r="G20">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>601</v>
       </c>
@@ -34980,19 +35072,20 @@
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E21" s="3">
         <v>0.8833333333333333</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3"/>
+      <c r="G21">
         <v>151</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:9">
       <c r="B22" t="s">
         <v>602</v>
       </c>
@@ -35000,19 +35093,20 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E22" s="3">
         <v>0.88194444444444453</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3"/>
+      <c r="G22">
         <v>99</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>603</v>
       </c>
@@ -35020,16 +35114,17 @@
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E23" s="3">
         <v>0.87847222222222221</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3"/>
+      <c r="G23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>604</v>
       </c>
@@ -35037,16 +35132,17 @@
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E24" s="3">
         <v>0.87777777777777777</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3"/>
+      <c r="G24">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:9">
       <c r="B25" t="s">
         <v>605</v>
       </c>
@@ -35054,19 +35150,20 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E25" s="3">
         <v>0.87777777777777777</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3"/>
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>606</v>
       </c>
@@ -35074,19 +35171,20 @@
         <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E26" s="3">
         <v>0.87638888888888899</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3"/>
+      <c r="G26">
         <v>31</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:9">
       <c r="B27" t="s">
         <v>607</v>
       </c>
@@ -35094,19 +35192,20 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E27" s="3">
         <v>0.87083333333333324</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3"/>
+      <c r="G27">
         <v>64</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:9">
       <c r="B28" t="s">
         <v>608</v>
       </c>
@@ -35114,2411 +35213,2457 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E28" s="3">
         <v>0.87013888888888891</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3"/>
+      <c r="G28">
         <v>173</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>609</v>
       </c>
       <c r="E29" s="3">
         <v>5.0694444444444452E-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3"/>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:9">
       <c r="B30" t="s">
         <v>610</v>
       </c>
       <c r="E30" s="3">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3"/>
+      <c r="G30">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:9">
       <c r="B31" t="s">
         <v>611</v>
       </c>
       <c r="E31" s="3">
         <v>4.9305555555555554E-2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3"/>
+      <c r="G31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:9">
       <c r="B32" t="s">
         <v>612</v>
       </c>
       <c r="E32" s="3">
         <v>4.7916666666666663E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3"/>
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>613</v>
       </c>
       <c r="E33" s="3">
         <v>4.7916666666666663E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3"/>
+      <c r="G33">
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>614</v>
       </c>
       <c r="E34" s="3">
         <v>4.7222222222222221E-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3"/>
+      <c r="G34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>615</v>
       </c>
       <c r="E35" s="3">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3"/>
+      <c r="G35">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>616</v>
       </c>
       <c r="E36" s="3">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3"/>
+      <c r="G36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>617</v>
       </c>
       <c r="E37" s="3">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3"/>
+      <c r="G37">
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>618</v>
       </c>
       <c r="E38" s="3">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3"/>
+      <c r="G38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>619</v>
       </c>
       <c r="E39" s="3">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3"/>
+      <c r="G39">
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>620</v>
       </c>
       <c r="E40" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3"/>
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>621</v>
       </c>
       <c r="E41" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3"/>
+      <c r="G41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>622</v>
       </c>
       <c r="E42" s="3">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3"/>
+      <c r="G42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>623</v>
       </c>
       <c r="E43" s="3">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3"/>
+      <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>624</v>
       </c>
       <c r="E44" s="3">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3"/>
+      <c r="G44">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:9">
       <c r="B45" t="s">
         <v>625</v>
       </c>
       <c r="E45" s="3">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3"/>
+      <c r="G45">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:9">
       <c r="B46" t="s">
         <v>626</v>
       </c>
       <c r="E46" s="3">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3"/>
+      <c r="G46">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:9">
       <c r="B47" t="s">
         <v>627</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:9">
       <c r="B48" t="s">
         <v>628</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>-24</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:8">
       <c r="B49" t="s">
         <v>629</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:8">
       <c r="B50" t="s">
         <v>630</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:8">
       <c r="B51" t="s">
         <v>631</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>-35</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:8">
       <c r="B52" t="s">
         <v>632</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>884</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
         <v>633</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:8">
       <c r="B54" t="s">
         <v>634</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:8">
       <c r="B55" t="s">
         <v>635</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="H55" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" t="s">
         <v>636</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:8">
       <c r="B57" t="s">
         <v>637</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:8">
       <c r="B58" t="s">
         <v>638</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:8">
       <c r="B59" t="s">
         <v>639</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:8">
       <c r="B60" t="s">
         <v>640</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:8">
       <c r="B61" t="s">
         <v>641</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:8">
       <c r="B62" t="s">
         <v>642</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:8">
       <c r="B63" t="s">
         <v>643</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:8">
       <c r="B64" t="s">
         <v>644</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>-2</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:9">
       <c r="B65" t="s">
         <v>645</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:9">
       <c r="B66" t="s">
         <v>646</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:9">
       <c r="B67" t="s">
         <v>647</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:9">
       <c r="B68" t="s">
         <v>648</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:9">
       <c r="B69" t="s">
         <v>649</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:9">
       <c r="B70" t="s">
         <v>650</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="H70" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="s">
         <v>651</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="H71" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="s">
         <v>652</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:9">
       <c r="B73" t="s">
         <v>653</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>14</v>
       </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:9">
       <c r="B74" t="s">
         <v>654</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:9">
       <c r="B75" t="s">
         <v>655</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>126</v>
       </c>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="H75" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="s">
         <v>656</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:9">
       <c r="B77" t="s">
         <v>657</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:9">
       <c r="B78" t="s">
         <v>658</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:9">
       <c r="B79" t="s">
         <v>659</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:9">
       <c r="B80" t="s">
         <v>660</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="H80" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="s">
         <v>661</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>-1</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:9">
       <c r="B82" t="s">
         <v>662</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:9">
       <c r="B83" t="s">
         <v>663</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>19</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:9">
       <c r="B84" t="s">
         <v>664</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>2</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:9">
       <c r="B85" t="s">
         <v>665</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>72</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:9">
       <c r="B86" t="s">
         <v>666</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>278</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:9">
       <c r="B87" t="s">
         <v>667</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>52</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:9">
       <c r="B88" t="s">
         <v>668</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>22</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="I88" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:9">
       <c r="B89" t="s">
         <v>669</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>-52</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:9">
       <c r="B90" t="s">
         <v>670</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:9">
       <c r="B91" t="s">
         <v>671</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:9">
       <c r="B92" t="s">
         <v>672</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:9">
       <c r="B93" t="s">
         <v>673</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>-32</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:9">
       <c r="B94" t="s">
         <v>674</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>-47</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:9">
       <c r="B95" t="s">
         <v>675</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:9">
       <c r="B96" t="s">
         <v>676</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:7">
       <c r="B97" t="s">
         <v>677</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:7">
       <c r="B98" t="s">
         <v>678</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:7">
       <c r="B99" t="s">
         <v>679</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>-32</v>
       </c>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:7">
       <c r="B100" t="s">
         <v>680</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:7">
       <c r="B101" t="s">
         <v>681</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>-93</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:7">
       <c r="B102" t="s">
         <v>682</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>-12</v>
       </c>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:7">
       <c r="B103" t="s">
         <v>683</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:7">
       <c r="B104" t="s">
         <v>684</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:7">
       <c r="B105" t="s">
         <v>685</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>-188</v>
       </c>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:7">
       <c r="B106" t="s">
         <v>686</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:7">
       <c r="B107" t="s">
         <v>687</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:7">
       <c r="B108" t="s">
         <v>688</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:7">
       <c r="B109" t="s">
         <v>687</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:7">
       <c r="B110" t="s">
         <v>689</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:7">
       <c r="B111" t="s">
         <v>690</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:7">
       <c r="B112" t="s">
         <v>691</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>-8</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:7">
       <c r="B113" t="s">
         <v>692</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:7">
       <c r="B114" t="s">
         <v>693</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>-12</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:7">
       <c r="B115" t="s">
         <v>694</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>-32</v>
       </c>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:7">
       <c r="B116" t="s">
         <v>695</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:7">
       <c r="B117" t="s">
         <v>696</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:7">
       <c r="B118" t="s">
         <v>697</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>-4</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:7">
       <c r="B119" t="s">
         <v>698</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:7">
       <c r="B120" t="s">
         <v>699</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:7">
       <c r="B121" t="s">
         <v>700</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:7">
       <c r="B122" t="s">
         <v>701</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:7">
       <c r="B123" t="s">
         <v>702</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:7">
       <c r="B124" t="s">
         <v>703</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:7">
       <c r="B125" t="s">
         <v>704</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:7">
       <c r="B126" t="s">
         <v>705</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:7">
       <c r="B127" t="s">
         <v>706</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:7">
       <c r="B128" t="s">
         <v>707</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:9">
       <c r="B129" t="s">
         <v>708</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:9">
       <c r="B130" t="s">
         <v>709</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:9">
       <c r="B131" t="s">
         <v>710</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:9">
       <c r="B132" t="s">
         <v>711</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:9">
       <c r="B133" t="s">
         <v>712</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:9">
       <c r="B134" t="s">
         <v>713</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:9">
       <c r="B135" t="s">
         <v>714</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:9">
       <c r="B136" t="s">
         <v>715</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:9">
       <c r="B137" t="s">
         <v>716</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:9">
       <c r="B138" t="s">
         <v>717</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>0</v>
       </c>
-      <c r="G138" t="s">
+      <c r="I138" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:9">
       <c r="B139" t="s">
         <v>718</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>-2</v>
       </c>
-      <c r="G139" t="s">
+      <c r="I139" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:9">
       <c r="B140" t="s">
         <v>719</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>30</v>
       </c>
-      <c r="G140" t="s">
+      <c r="I140" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:9">
       <c r="B141" t="s">
         <v>720</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>66</v>
       </c>
-      <c r="G141" t="s">
+      <c r="I141" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:9">
       <c r="B142" t="s">
         <v>721</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:9">
       <c r="B143" t="s">
         <v>722</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:9">
       <c r="B144" t="s">
         <v>723</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>-68</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:9">
       <c r="B145" t="s">
         <v>724</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>-35</v>
       </c>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:9">
       <c r="B146" t="s">
         <v>725</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>-72</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:9">
       <c r="B147" t="s">
         <v>726</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:9">
       <c r="B148" t="s">
         <v>727</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:9">
       <c r="B149" t="s">
         <v>728</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:9">
       <c r="B150" t="s">
         <v>729</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>-155</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:9">
       <c r="B151" t="s">
         <v>730</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:9">
       <c r="B152" t="s">
         <v>731</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:9">
       <c r="B153" t="s">
         <v>732</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:9">
       <c r="B154" t="s">
         <v>733</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>0</v>
       </c>
-      <c r="G154" t="s">
+      <c r="I154" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:9">
       <c r="B155" t="s">
         <v>734</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>0</v>
       </c>
-      <c r="G155" t="s">
+      <c r="I155" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:9">
       <c r="B156" t="s">
         <v>735</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>0</v>
       </c>
-      <c r="G156" t="s">
+      <c r="I156" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:9">
       <c r="B157" t="s">
         <v>736</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:9">
       <c r="B158" t="s">
         <v>737</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:9">
       <c r="B159" t="s">
         <v>738</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>0</v>
       </c>
-      <c r="G159" t="s">
+      <c r="I159" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:9">
       <c r="B160" t="s">
         <v>739</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:9">
       <c r="B161" t="s">
         <v>740</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>0</v>
       </c>
-      <c r="G161" t="s">
+      <c r="I161" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:9">
       <c r="B162" t="s">
         <v>741</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:9">
       <c r="B163" t="s">
         <v>742</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:9">
       <c r="B164" t="s">
         <v>743</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:9">
       <c r="B165" t="s">
         <v>744</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:9">
       <c r="B166" t="s">
         <v>745</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:9">
       <c r="B167" t="s">
         <v>746</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:9">
       <c r="B168" t="s">
         <v>747</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>342</v>
       </c>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:9">
       <c r="B169" t="s">
         <v>748</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:9">
       <c r="B170" t="s">
         <v>749</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>-1</v>
       </c>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:9">
       <c r="B171" t="s">
         <v>750</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:9">
       <c r="B172" t="s">
         <v>751</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:9">
       <c r="B173" t="s">
         <v>752</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:9">
       <c r="B174" t="s">
         <v>753</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:9">
       <c r="B175" t="s">
         <v>754</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:9">
       <c r="B176" t="s">
         <v>755</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>303</v>
       </c>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="2:7">
       <c r="B177" t="s">
         <v>756</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:7">
       <c r="B178" t="s">
         <v>757</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="2:7">
       <c r="B179" t="s">
         <v>757</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:6">
+    <row r="180" spans="2:7">
       <c r="B180" t="s">
         <v>758</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="2:7">
       <c r="B181" t="s">
         <v>759</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="2:7">
       <c r="B182" t="s">
         <v>760</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:6">
+    <row r="183" spans="2:7">
       <c r="B183" t="s">
         <v>761</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="2:6">
+    <row r="184" spans="2:7">
       <c r="B184" t="s">
         <v>762</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="2:6">
+    <row r="185" spans="2:7">
       <c r="B185" t="s">
         <v>763</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="2:7">
       <c r="B186" t="s">
         <v>764</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>79</v>
       </c>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:7">
       <c r="B187" t="s">
         <v>765</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:7">
       <c r="B188" t="s">
         <v>766</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:7">
       <c r="B189" t="s">
         <v>767</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>764</v>
       </c>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:7">
       <c r="B190" t="s">
         <v>768</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="2:7">
       <c r="B191" t="s">
         <v>769</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="2:7">
       <c r="B192" t="s">
         <v>770</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:9">
       <c r="B193" t="s">
         <v>771</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:9">
       <c r="B194" t="s">
         <v>772</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>-34</v>
       </c>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:9">
       <c r="B195" t="s">
         <v>773</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:9">
       <c r="B196" t="s">
         <v>774</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:9">
       <c r="B197" t="s">
         <v>775</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>0</v>
       </c>
-      <c r="G197" t="s">
+      <c r="I197" t="s">
         <v>3643</v>
       </c>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:9">
       <c r="B198" t="s">
         <v>776</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>253</v>
       </c>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:9">
       <c r="B199" t="s">
         <v>777</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:9">
       <c r="B200" t="s">
         <v>778</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:9">
       <c r="B201" t="s">
         <v>779</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:9">
       <c r="B202" t="s">
         <v>780</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:9">
       <c r="B203" t="s">
         <v>781</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:9">
       <c r="B204" t="s">
         <v>782</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:9">
       <c r="B205" t="s">
         <v>783</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:9">
       <c r="B206" t="s">
         <v>784</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>158</v>
       </c>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:9">
       <c r="B207" t="s">
         <v>785</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>-10</v>
       </c>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:9">
       <c r="B208" t="s">
         <v>786</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:9">
       <c r="B209" t="s">
         <v>787</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>94</v>
       </c>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:9">
       <c r="B210" t="s">
         <v>788</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>96</v>
       </c>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:9">
       <c r="B211" t="s">
         <v>789</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>-1</v>
       </c>
-      <c r="G211" t="s">
+      <c r="I211" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:9">
       <c r="B212" t="s">
         <v>790</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>84</v>
       </c>
-      <c r="G212" t="s">
+      <c r="I212" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:9">
       <c r="B213" t="s">
         <v>791</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:9">
       <c r="B214" t="s">
         <v>792</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>-6</v>
       </c>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:9">
       <c r="B215" t="s">
         <v>793</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>-2</v>
       </c>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:9">
       <c r="B216" t="s">
         <v>794</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:9">
       <c r="B217" t="s">
         <v>795</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>-4</v>
       </c>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:9">
       <c r="B218" t="s">
         <v>796</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>896</v>
       </c>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:9">
       <c r="B219" t="s">
         <v>797</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>12</v>
       </c>
-      <c r="G219" t="s">
+      <c r="I219" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:9">
       <c r="B220" t="s">
         <v>798</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>228</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="I220" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:9">
       <c r="B221" t="s">
         <v>799</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>72</v>
       </c>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:9">
       <c r="B222" t="s">
         <v>800</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:9">
       <c r="B223" t="s">
         <v>801</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>122</v>
       </c>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:9">
       <c r="B224" t="s">
         <v>802</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:7">
       <c r="B225" t="s">
         <v>803</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:7">
       <c r="B226" t="s">
         <v>804</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>134</v>
       </c>
     </row>
-    <row r="227" spans="2:6">
+    <row r="227" spans="2:7">
       <c r="B227" t="s">
         <v>805</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:6">
+    <row r="228" spans="2:7">
       <c r="B228" t="s">
         <v>806</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>684</v>
       </c>
     </row>
-    <row r="229" spans="2:6">
+    <row r="229" spans="2:7">
       <c r="B229" t="s">
         <v>807</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="2:6">
+    <row r="230" spans="2:7">
       <c r="B230" t="s">
         <v>808</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="2:6">
+    <row r="231" spans="2:7">
       <c r="B231" t="s">
         <v>809</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="2:6">
+    <row r="232" spans="2:7">
       <c r="B232" t="s">
         <v>810</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>424</v>
       </c>
     </row>
-    <row r="233" spans="2:6">
+    <row r="233" spans="2:7">
       <c r="B233" t="s">
         <v>811</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="2:6">
+    <row r="234" spans="2:7">
       <c r="B234" t="s">
         <v>812</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="2:6">
+    <row r="235" spans="2:7">
       <c r="B235" t="s">
         <v>813</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:6">
+    <row r="236" spans="2:7">
       <c r="B236" t="s">
         <v>814</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="2:6">
+    <row r="237" spans="2:7">
       <c r="B237" t="s">
         <v>815</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:6">
+    <row r="238" spans="2:7">
       <c r="B238" t="s">
         <v>816</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>120</v>
       </c>
     </row>
-    <row r="239" spans="2:6">
+    <row r="239" spans="2:7">
       <c r="B239" t="s">
         <v>817</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="2:6">
+    <row r="240" spans="2:7">
       <c r="B240" t="s">
         <v>818</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="2:6">
+    <row r="241" spans="2:7">
       <c r="B241" t="s">
         <v>819</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="2:6">
+    <row r="242" spans="2:7">
       <c r="B242" t="s">
         <v>820</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>-15</v>
       </c>
     </row>
-    <row r="243" spans="2:6">
+    <row r="243" spans="2:7">
       <c r="B243" t="s">
         <v>821</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="2:6">
+    <row r="244" spans="2:7">
       <c r="B244" t="s">
         <v>822</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="2:6">
+    <row r="245" spans="2:7">
       <c r="B245" t="s">
         <v>823</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="2:6">
+    <row r="246" spans="2:7">
       <c r="B246" t="s">
         <v>824</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>113</v>
       </c>
     </row>
-    <row r="247" spans="2:6">
+    <row r="247" spans="2:7">
       <c r="B247" t="s">
         <v>825</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="2:6">
+    <row r="248" spans="2:7">
       <c r="B248" t="s">
         <v>826</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>979</v>
       </c>
     </row>
-    <row r="249" spans="2:6">
+    <row r="249" spans="2:7">
       <c r="B249" t="s">
         <v>827</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="2:6">
+    <row r="250" spans="2:7">
       <c r="B250" t="s">
         <v>828</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>-31</v>
       </c>
     </row>
-    <row r="251" spans="2:6">
+    <row r="251" spans="2:7">
       <c r="B251" t="s">
         <v>829</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>-4</v>
       </c>
     </row>
-    <row r="252" spans="2:6">
+    <row r="252" spans="2:7">
       <c r="B252" t="s">
         <v>830</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="2:6">
+    <row r="253" spans="2:7">
       <c r="B253" t="s">
         <v>831</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="2:6">
+    <row r="254" spans="2:7">
       <c r="B254" t="s">
         <v>832</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>1699</v>
       </c>
     </row>
-    <row r="255" spans="2:6">
+    <row r="255" spans="2:7">
       <c r="B255" t="s">
         <v>833</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>5263</v>
       </c>
     </row>
-    <row r="256" spans="2:6">
+    <row r="256" spans="2:7">
       <c r="B256" t="s">
         <v>834</v>
       </c>
-      <c r="F256">
+      <c r="G256">
         <v>189</v>
       </c>
     </row>
-    <row r="257" spans="2:6">
+    <row r="257" spans="2:7">
       <c r="B257" t="s">
         <v>835</v>
       </c>
-      <c r="F257">
+      <c r="G257">
         <v>1476</v>
       </c>
     </row>
-    <row r="258" spans="2:6">
+    <row r="258" spans="2:7">
       <c r="B258" t="s">
         <v>836</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>1672</v>
       </c>
     </row>
-    <row r="259" spans="2:6">
+    <row r="259" spans="2:7">
       <c r="B259" t="s">
         <v>837</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>1971</v>
       </c>
     </row>
-    <row r="260" spans="2:6">
+    <row r="260" spans="2:7">
       <c r="B260" t="s">
         <v>838</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="2:6">
+    <row r="261" spans="2:7">
       <c r="B261" t="s">
         <v>839</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>190</v>
       </c>
     </row>
-    <row r="262" spans="2:6">
+    <row r="262" spans="2:7">
       <c r="B262" t="s">
         <v>840</v>
       </c>
-      <c r="F262">
+      <c r="G262">
         <v>113</v>
       </c>
     </row>
-    <row r="263" spans="2:6">
+    <row r="263" spans="2:7">
       <c r="B263" t="s">
         <v>841</v>
       </c>
-      <c r="F263">
+      <c r="G263">
         <v>-2</v>
       </c>
     </row>
-    <row r="264" spans="2:6">
+    <row r="264" spans="2:7">
       <c r="B264" t="s">
         <v>842</v>
       </c>
-      <c r="F264">
+      <c r="G264">
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="2:6">
+    <row r="265" spans="2:7">
       <c r="B265" t="s">
         <v>843</v>
       </c>
-      <c r="F265">
+      <c r="G265">
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="2:6">
+    <row r="266" spans="2:7">
       <c r="B266" t="s">
         <v>844</v>
       </c>
-      <c r="F266">
+      <c r="G266">
         <v>-8</v>
       </c>
     </row>
-    <row r="267" spans="2:6">
+    <row r="267" spans="2:7">
       <c r="B267" t="s">
         <v>845</v>
       </c>
-      <c r="F267">
+      <c r="G267">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="2:6">
+    <row r="268" spans="2:7">
       <c r="B268" t="s">
         <v>846</v>
       </c>
-      <c r="F268">
+      <c r="G268">
         <v>-2</v>
       </c>
     </row>
-    <row r="269" spans="2:6">
+    <row r="269" spans="2:7">
       <c r="B269" t="s">
         <v>846</v>
       </c>
-      <c r="F269">
+      <c r="G269">
         <v>-2</v>
       </c>
     </row>
-    <row r="270" spans="2:6">
+    <row r="270" spans="2:7">
       <c r="B270" t="s">
         <v>847</v>
       </c>
-      <c r="F270">
+      <c r="G270">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="2:6">
+    <row r="271" spans="2:7">
       <c r="B271" t="s">
         <v>848</v>
       </c>
-      <c r="F271">
+      <c r="G271">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="2:6">
+    <row r="272" spans="2:7">
       <c r="B272" t="s">
         <v>849</v>
       </c>
-      <c r="F272">
+      <c r="G272">
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="2:6">
+    <row r="273" spans="2:7">
       <c r="B273" t="s">
         <v>850</v>
       </c>
-      <c r="F273">
+      <c r="G273">
         <v>-7</v>
       </c>
     </row>
-    <row r="274" spans="2:6">
+    <row r="274" spans="2:7">
       <c r="B274" t="s">
         <v>851</v>
       </c>
-      <c r="F274">
+      <c r="G274">
         <v>-2</v>
       </c>
     </row>
-    <row r="275" spans="2:6">
+    <row r="275" spans="2:7">
       <c r="B275" t="s">
         <v>852</v>
       </c>
-      <c r="F275">
+      <c r="G275">
         <v>-3</v>
       </c>
     </row>
-    <row r="276" spans="2:6">
+    <row r="276" spans="2:7">
       <c r="B276" t="s">
         <v>853</v>
       </c>
-      <c r="F276">
+      <c r="G276">
         <v>235</v>
       </c>
     </row>
-    <row r="277" spans="2:6">
+    <row r="277" spans="2:7">
       <c r="B277" t="s">
         <v>854</v>
       </c>
-      <c r="F277">
+      <c r="G277">
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="2:6">
+    <row r="278" spans="2:7">
       <c r="B278" t="s">
         <v>855</v>
       </c>
-      <c r="F278">
+      <c r="G278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:6">
+    <row r="279" spans="2:7">
       <c r="B279" t="s">
         <v>856</v>
       </c>
-      <c r="F279">
+      <c r="G279">
         <v>406</v>
       </c>
     </row>
-    <row r="280" spans="2:6">
+    <row r="280" spans="2:7">
       <c r="B280" t="s">
         <v>857</v>
       </c>
-      <c r="F280">
+      <c r="G280">
         <v>262</v>
       </c>
     </row>
-    <row r="281" spans="2:6">
+    <row r="281" spans="2:7">
       <c r="B281" t="s">
         <v>858</v>
       </c>
-      <c r="F281">
+      <c r="G281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:6">
+    <row r="282" spans="2:7">
       <c r="B282" t="s">
         <v>858</v>
       </c>
-      <c r="F282">
+      <c r="G282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:6">
+    <row r="283" spans="2:7">
       <c r="B283" t="s">
         <v>859</v>
       </c>
-      <c r="F283">
+      <c r="G283">
         <v>405</v>
       </c>
     </row>
-    <row r="284" spans="2:6">
+    <row r="284" spans="2:7">
       <c r="B284" t="s">
         <v>860</v>
       </c>
-      <c r="F284">
+      <c r="G284">
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="2:6">
+    <row r="285" spans="2:7">
       <c r="B285" t="s">
         <v>861</v>
       </c>
-      <c r="F285">
+      <c r="G285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:6">
+    <row r="286" spans="2:7">
       <c r="B286" t="s">
         <v>862</v>
       </c>
-      <c r="F286">
+      <c r="G286">
         <v>84</v>
       </c>
     </row>
-    <row r="287" spans="2:6">
+    <row r="287" spans="2:7">
       <c r="B287" t="s">
         <v>863</v>
       </c>
-      <c r="F287">
+      <c r="G287">
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="2:6">
+    <row r="288" spans="2:7">
       <c r="B288" t="s">
         <v>864</v>
       </c>
-      <c r="F288">
+      <c r="G288">
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:6">
+    <row r="289" spans="2:8">
       <c r="B289" t="s">
         <v>865</v>
       </c>
-      <c r="F289">
+      <c r="G289">
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="2:6">
+    <row r="290" spans="2:8">
       <c r="B290" t="s">
         <v>866</v>
       </c>
-      <c r="F290">
+      <c r="G290">
         <v>-1</v>
       </c>
     </row>
-    <row r="291" spans="2:6">
+    <row r="291" spans="2:8">
       <c r="B291" t="s">
         <v>867</v>
       </c>
-      <c r="F291">
+      <c r="G291">
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="2:6">
+    <row r="292" spans="2:8">
       <c r="B292" t="s">
         <v>868</v>
       </c>
-      <c r="F292">
+      <c r="G292">
         <v>-4</v>
       </c>
     </row>
-    <row r="293" spans="2:6">
+    <row r="293" spans="2:8">
       <c r="B293" t="s">
         <v>869</v>
       </c>
-      <c r="F293">
+      <c r="G293">
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="2:6">
+    <row r="294" spans="2:8">
       <c r="B294" t="s">
         <v>870</v>
       </c>
-      <c r="F294">
+      <c r="G294">
         <v>766</v>
       </c>
     </row>
-    <row r="295" spans="2:6">
+    <row r="295" spans="2:8">
       <c r="B295" t="s">
         <v>871</v>
       </c>
-      <c r="F295">
+      <c r="G295">
         <v>252</v>
       </c>
     </row>
-    <row r="296" spans="2:6">
+    <row r="296" spans="2:8">
       <c r="B296" t="s">
         <v>872</v>
       </c>
-      <c r="F296">
+      <c r="G296">
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:6">
+    <row r="297" spans="2:8">
       <c r="B297" t="s">
         <v>873</v>
       </c>
-      <c r="F297">
+      <c r="G297">
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="2:6">
+    <row r="298" spans="2:8">
       <c r="B298" t="s">
         <v>874</v>
       </c>
-      <c r="F298">
+      <c r="G298">
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="2:6">
+    <row r="299" spans="2:8">
       <c r="B299" t="s">
         <v>875</v>
       </c>
-      <c r="F299">
+      <c r="G299">
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="2:6">
+    <row r="300" spans="2:8">
       <c r="B300" t="s">
         <v>876</v>
       </c>
-      <c r="F300">
+      <c r="G300">
         <v>1474</v>
       </c>
-    </row>
-    <row r="301" spans="2:6">
+      <c r="H300" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8">
       <c r="B301" t="s">
         <v>877</v>
       </c>
-      <c r="F301">
+      <c r="G301">
         <v>45</v>
       </c>
     </row>
-    <row r="302" spans="2:6">
+    <row r="302" spans="2:8">
       <c r="B302" t="s">
         <v>878</v>
       </c>
-      <c r="F302">
+      <c r="G302">
         <v>1555</v>
       </c>
     </row>
-    <row r="303" spans="2:6">
+    <row r="303" spans="2:8">
       <c r="B303" t="s">
         <v>879</v>
       </c>
-      <c r="F303">
+      <c r="G303">
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="2:6">
+    <row r="304" spans="2:8">
       <c r="B304" t="s">
         <v>879</v>
       </c>
-      <c r="F304">
+      <c r="G304">
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="2:7">
+    <row r="305" spans="2:9">
       <c r="B305" t="s">
         <v>880</v>
       </c>
-      <c r="F305">
+      <c r="G305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="2:7">
+    <row r="306" spans="2:9">
       <c r="B306" t="s">
         <v>881</v>
       </c>
-      <c r="F306">
+      <c r="G306">
         <v>204</v>
       </c>
     </row>
-    <row r="307" spans="2:7">
+    <row r="307" spans="2:9">
       <c r="B307" t="s">
         <v>882</v>
       </c>
-      <c r="F307">
+      <c r="G307">
         <v>27</v>
       </c>
-    </row>
-    <row r="308" spans="2:7">
+      <c r="H307" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9">
       <c r="B308" t="s">
         <v>883</v>
       </c>
-      <c r="F308">
+      <c r="G308">
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="2:7">
+    <row r="309" spans="2:9">
       <c r="B309" t="s">
         <v>884</v>
       </c>
-      <c r="F309">
+      <c r="G309">
         <v>95</v>
       </c>
     </row>
-    <row r="310" spans="2:7">
+    <row r="310" spans="2:9">
       <c r="B310" t="s">
         <v>885</v>
       </c>
-      <c r="F310">
+      <c r="G310">
         <v>-1</v>
       </c>
-      <c r="G310" t="s">
+      <c r="I310" t="s">
         <v>3675</v>
       </c>
     </row>
-    <row r="311" spans="2:7">
+    <row r="311" spans="2:9">
       <c r="B311" t="s">
         <v>886</v>
       </c>
-      <c r="F311">
+      <c r="G311">
         <v>160</v>
       </c>
-      <c r="G311" t="s">
+      <c r="I311" t="s">
         <v>3675</v>
       </c>
     </row>
@@ -37542,8 +37687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/数据/Toyhouse_wiki_personal_contributions.xlsx
+++ b/数据/Toyhouse_wiki_personal_contributions.xlsx
@@ -31,7 +31,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId22"/>
+    <pivotCache cacheId="2" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,7 +47,7 @@
     <author>w</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="3684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4057" uniqueCount="3684">
   <si>
     <t>2015年10月27日 (二) 22:44 （差异 | 历史） . . （+231）‎ . . 《超越学科的认知基础》2015秋赵益泉学习报告 ‎ （→‎第六周） （当前） [回退超过10次的编辑]</t>
   </si>
@@ -12436,8 +12436,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12547,7 +12549,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -12593,6 +12595,7 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -12638,6 +12641,7 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12677,6 +12681,44 @@
         <a:xfrm>
           <a:off x="76201" y="215900"/>
           <a:ext cx="1396430" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215901" y="177800"/>
+          <a:ext cx="2044699" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18506,7 +18548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:H23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -18972,10 +19014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18986,14 +19028,14 @@
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57" customHeight="1">
+    <row r="1" spans="1:10" ht="57" customHeight="1">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>3163</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3162</v>
       </c>
@@ -19010,26 +19052,32 @@
         <v>3158</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3159</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3161</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>3160</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -34684,7 +34732,7 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
